--- a/Region.xlsx
+++ b/Region.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TV\PycharmProjects\pythonProject4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TV\PycharmProjects\uploaded version\Travelesim-main - Copy\Travelesim-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{435B5F45-3DB9-42AE-AF2A-FF41DBFF50B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2307409B-42A9-48B4-9BCF-156FFAD48BA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Region" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Region!$A$1:$I$217</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
@@ -1785,12 +1788,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I217"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I220" sqref="I220"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="N207" sqref="N207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="31.109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1836,8 +1841,8 @@
       <c r="D2" s="2">
         <v>17.989999999999998</v>
       </c>
-      <c r="E2" s="3">
-        <v>10</v>
+      <c r="E2" t="s">
+        <v>97</v>
       </c>
       <c r="F2" s="3">
         <v>10</v>
@@ -1865,8 +1870,8 @@
       <c r="D3" s="2">
         <v>17.989999999999998</v>
       </c>
-      <c r="E3" s="3">
-        <v>10</v>
+      <c r="E3" t="s">
+        <v>97</v>
       </c>
       <c r="F3" s="3">
         <v>15</v>
@@ -1894,8 +1899,8 @@
       <c r="D4" s="2">
         <v>18.989999999999998</v>
       </c>
-      <c r="E4" s="3">
-        <v>10</v>
+      <c r="E4" t="s">
+        <v>97</v>
       </c>
       <c r="F4" s="3">
         <v>30</v>
@@ -1923,8 +1928,8 @@
       <c r="D5" s="2">
         <v>16.989999999999998</v>
       </c>
-      <c r="E5" s="3">
-        <v>10</v>
+      <c r="E5" t="s">
+        <v>97</v>
       </c>
       <c r="F5" s="3">
         <v>5</v>
@@ -1952,8 +1957,8 @@
       <c r="D6" s="2">
         <v>4</v>
       </c>
-      <c r="E6" s="3">
-        <v>1</v>
+      <c r="E6" t="s">
+        <v>97</v>
       </c>
       <c r="F6" s="3">
         <v>10</v>
@@ -1981,8 +1986,8 @@
       <c r="D7" s="2">
         <v>5.99</v>
       </c>
-      <c r="E7" s="3">
-        <v>1</v>
+      <c r="E7" t="s">
+        <v>97</v>
       </c>
       <c r="F7" s="3">
         <v>15</v>
@@ -2010,8 +2015,8 @@
       <c r="D8" s="2">
         <v>6</v>
       </c>
-      <c r="E8" s="3">
-        <v>1</v>
+      <c r="E8" t="s">
+        <v>97</v>
       </c>
       <c r="F8" s="3">
         <v>30</v>
@@ -2039,8 +2044,8 @@
       <c r="D9" s="2">
         <v>5.99</v>
       </c>
-      <c r="E9" s="3">
-        <v>1</v>
+      <c r="E9" t="s">
+        <v>97</v>
       </c>
       <c r="F9" s="3">
         <v>5</v>
@@ -2068,8 +2073,8 @@
       <c r="D10" s="2">
         <v>32.99</v>
       </c>
-      <c r="E10" s="3">
-        <v>20</v>
+      <c r="E10" t="s">
+        <v>97</v>
       </c>
       <c r="F10" s="3">
         <v>10</v>
@@ -2097,8 +2102,8 @@
       <c r="D11" s="2">
         <v>33.99</v>
       </c>
-      <c r="E11" s="3">
-        <v>20</v>
+      <c r="E11" t="s">
+        <v>97</v>
       </c>
       <c r="F11" s="3">
         <v>15</v>
@@ -2126,8 +2131,8 @@
       <c r="D12" s="2">
         <v>34.99</v>
       </c>
-      <c r="E12" s="3">
-        <v>20</v>
+      <c r="E12" t="s">
+        <v>97</v>
       </c>
       <c r="F12" s="3">
         <v>30</v>
@@ -2155,8 +2160,8 @@
       <c r="D13" s="2">
         <v>31.99</v>
       </c>
-      <c r="E13" s="3">
-        <v>20</v>
+      <c r="E13" t="s">
+        <v>97</v>
       </c>
       <c r="F13" s="3">
         <v>5</v>
@@ -2185,7 +2190,7 @@
         <v>7.99</v>
       </c>
       <c r="E14" s="3">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="F14" s="3">
         <v>10</v>
@@ -2214,7 +2219,7 @@
         <v>8.99</v>
       </c>
       <c r="E15" s="3">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="F15" s="3">
         <v>15</v>
@@ -2243,7 +2248,7 @@
         <v>8.99</v>
       </c>
       <c r="E16" s="3">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="F16" s="3">
         <v>30</v>
@@ -2272,7 +2277,7 @@
         <v>6.99</v>
       </c>
       <c r="E17" s="3">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="F17" s="3">
         <v>5</v>
@@ -2301,7 +2306,7 @@
         <v>10.99</v>
       </c>
       <c r="E18" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F18" s="3">
         <v>10</v>
@@ -2330,7 +2335,7 @@
         <v>11.99</v>
       </c>
       <c r="E19" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F19" s="3">
         <v>15</v>
@@ -2359,7 +2364,7 @@
         <v>12.99</v>
       </c>
       <c r="E20" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F20" s="3">
         <v>30</v>
@@ -2388,7 +2393,7 @@
         <v>9.99</v>
       </c>
       <c r="E21" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F21" s="3">
         <v>5</v>
@@ -2416,8 +2421,8 @@
       <c r="D22" s="2">
         <v>27.99</v>
       </c>
-      <c r="E22" t="s">
-        <v>97</v>
+      <c r="E22" s="3">
+        <v>5</v>
       </c>
       <c r="F22" s="3">
         <v>10</v>
@@ -2445,8 +2450,8 @@
       <c r="D23" s="2">
         <v>41.99</v>
       </c>
-      <c r="E23" t="s">
-        <v>97</v>
+      <c r="E23" s="3">
+        <v>5</v>
       </c>
       <c r="F23" s="3">
         <v>15</v>
@@ -2474,8 +2479,8 @@
       <c r="D24" s="2">
         <v>54.99</v>
       </c>
-      <c r="E24" t="s">
-        <v>97</v>
+      <c r="E24" s="3">
+        <v>5</v>
       </c>
       <c r="F24" s="3">
         <v>30</v>
@@ -2503,8 +2508,8 @@
       <c r="D25" s="2">
         <v>20.99</v>
       </c>
-      <c r="E25" t="s">
-        <v>97</v>
+      <c r="E25" s="3">
+        <v>5</v>
       </c>
       <c r="F25" s="3">
         <v>5</v>
@@ -2532,8 +2537,8 @@
       <c r="D26" s="2">
         <v>51.99</v>
       </c>
-      <c r="E26" t="s">
-        <v>97</v>
+      <c r="E26" s="3">
+        <v>3</v>
       </c>
       <c r="F26" s="3">
         <v>10</v>
@@ -2561,8 +2566,8 @@
       <c r="D27" s="2">
         <v>76.989999999999995</v>
       </c>
-      <c r="E27" t="s">
-        <v>97</v>
+      <c r="E27" s="3">
+        <v>3</v>
       </c>
       <c r="F27" s="3">
         <v>15</v>
@@ -2590,8 +2595,8 @@
       <c r="D28" s="2">
         <v>90.99</v>
       </c>
-      <c r="E28" t="s">
-        <v>97</v>
+      <c r="E28" s="3">
+        <v>3</v>
       </c>
       <c r="F28" s="3">
         <v>30</v>
@@ -2619,8 +2624,8 @@
       <c r="D29" s="2">
         <v>33.99</v>
       </c>
-      <c r="E29" t="s">
-        <v>97</v>
+      <c r="E29" s="3">
+        <v>3</v>
       </c>
       <c r="F29" s="3">
         <v>5</v>
@@ -2648,8 +2653,8 @@
       <c r="D30" s="2">
         <v>27.99</v>
       </c>
-      <c r="E30" t="s">
-        <v>97</v>
+      <c r="E30" s="3">
+        <v>1</v>
       </c>
       <c r="F30" s="3">
         <v>10</v>
@@ -2677,8 +2682,8 @@
       <c r="D31" s="2">
         <v>41.99</v>
       </c>
-      <c r="E31" t="s">
-        <v>97</v>
+      <c r="E31" s="3">
+        <v>1</v>
       </c>
       <c r="F31" s="3">
         <v>15</v>
@@ -2706,8 +2711,8 @@
       <c r="D32" s="2">
         <v>54.99</v>
       </c>
-      <c r="E32" t="s">
-        <v>97</v>
+      <c r="E32" s="3">
+        <v>1</v>
       </c>
       <c r="F32" s="3">
         <v>30</v>
@@ -2735,8 +2740,8 @@
       <c r="D33" s="2">
         <v>20.99</v>
       </c>
-      <c r="E33" t="s">
-        <v>97</v>
+      <c r="E33" s="3">
+        <v>1</v>
       </c>
       <c r="F33" s="3">
         <v>5</v>
@@ -2765,7 +2770,7 @@
         <v>34.99</v>
       </c>
       <c r="E34" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F34" s="3">
         <v>10</v>
@@ -2794,7 +2799,7 @@
         <v>35.99</v>
       </c>
       <c r="E35" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F35" s="3">
         <v>15</v>
@@ -2823,7 +2828,7 @@
         <v>36.99</v>
       </c>
       <c r="E36" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F36" s="3">
         <v>30</v>
@@ -2852,7 +2857,7 @@
         <v>33.99</v>
       </c>
       <c r="E37" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F37" s="3">
         <v>5</v>
@@ -2881,7 +2886,7 @@
         <v>5.99</v>
       </c>
       <c r="E38" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F38" s="3">
         <v>10</v>
@@ -2910,7 +2915,7 @@
         <v>6.99</v>
       </c>
       <c r="E39" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F39" s="3">
         <v>15</v>
@@ -2939,7 +2944,7 @@
         <v>7.99</v>
       </c>
       <c r="E40" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F40" s="3">
         <v>30</v>
@@ -2968,7 +2973,7 @@
         <v>4.99</v>
       </c>
       <c r="E41" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F41" s="3">
         <v>5</v>
@@ -2997,7 +3002,7 @@
         <v>63.99</v>
       </c>
       <c r="E42" s="3">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F42" s="3">
         <v>10</v>
@@ -3026,7 +3031,7 @@
         <v>64.989999999999995</v>
       </c>
       <c r="E43" s="3">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F43" s="3">
         <v>15</v>
@@ -3055,7 +3060,7 @@
         <v>65.989999999999995</v>
       </c>
       <c r="E44" s="3">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F44" s="3">
         <v>30</v>
@@ -3084,7 +3089,7 @@
         <v>62.99</v>
       </c>
       <c r="E45" s="3">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F45" s="3">
         <v>5</v>
@@ -3229,7 +3234,7 @@
         <v>18.989999999999998</v>
       </c>
       <c r="E50" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F50" s="3">
         <v>10</v>
@@ -3258,7 +3263,7 @@
         <v>19.989999999999998</v>
       </c>
       <c r="E51" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F51" s="3">
         <v>15</v>
@@ -3287,7 +3292,7 @@
         <v>20.99</v>
       </c>
       <c r="E52" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F52" s="3">
         <v>30</v>
@@ -3316,7 +3321,7 @@
         <v>17.989999999999998</v>
       </c>
       <c r="E53" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F53" s="3">
         <v>5</v>
@@ -3345,7 +3350,7 @@
         <v>43.99</v>
       </c>
       <c r="E54" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F54" s="3">
         <v>10</v>
@@ -3374,7 +3379,7 @@
         <v>44.99</v>
       </c>
       <c r="E55" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F55" s="3">
         <v>15</v>
@@ -3403,7 +3408,7 @@
         <v>45.99</v>
       </c>
       <c r="E56" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F56" s="3">
         <v>30</v>
@@ -3432,7 +3437,7 @@
         <v>42.99</v>
       </c>
       <c r="E57" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F57" s="3">
         <v>5</v>
@@ -3461,7 +3466,7 @@
         <v>6.99</v>
       </c>
       <c r="E58" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F58" s="3">
         <v>10</v>
@@ -3490,7 +3495,7 @@
         <v>7.99</v>
       </c>
       <c r="E59" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F59" s="3">
         <v>15</v>
@@ -3519,7 +3524,7 @@
         <v>8.99</v>
       </c>
       <c r="E60" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F60" s="3">
         <v>30</v>
@@ -3548,7 +3553,7 @@
         <v>5.99</v>
       </c>
       <c r="E61" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F61" s="3">
         <v>5</v>
@@ -3577,7 +3582,7 @@
         <v>70.989999999999995</v>
       </c>
       <c r="E62" s="3">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F62" s="3">
         <v>10</v>
@@ -3606,7 +3611,7 @@
         <v>71.989999999999995</v>
       </c>
       <c r="E63" s="3">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F63" s="3">
         <v>15</v>
@@ -3635,7 +3640,7 @@
         <v>72.989999999999995</v>
       </c>
       <c r="E64" s="3">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F64" s="3">
         <v>30</v>
@@ -3664,7 +3669,7 @@
         <v>69.989999999999995</v>
       </c>
       <c r="E65" s="3">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F65" s="3">
         <v>5</v>
@@ -3809,7 +3814,7 @@
         <v>25.99</v>
       </c>
       <c r="E70" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F70" s="3">
         <v>10</v>
@@ -3838,7 +3843,7 @@
         <v>26.99</v>
       </c>
       <c r="E71" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F71" s="3">
         <v>15</v>
@@ -3867,7 +3872,7 @@
         <v>27.99</v>
       </c>
       <c r="E72" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F72" s="3">
         <v>30</v>
@@ -3896,7 +3901,7 @@
         <v>24.99</v>
       </c>
       <c r="E73" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F73" s="3">
         <v>5</v>
@@ -3924,8 +3929,8 @@
       <c r="D74" s="2">
         <v>16.989999999999998</v>
       </c>
-      <c r="E74" s="3">
-        <v>10</v>
+      <c r="E74" t="s">
+        <v>97</v>
       </c>
       <c r="F74" s="3">
         <v>10</v>
@@ -3953,8 +3958,8 @@
       <c r="D75" s="2">
         <v>17.989999999999998</v>
       </c>
-      <c r="E75" s="3">
-        <v>10</v>
+      <c r="E75" t="s">
+        <v>97</v>
       </c>
       <c r="F75" s="3">
         <v>15</v>
@@ -3982,8 +3987,8 @@
       <c r="D76" s="2">
         <v>18.989999999999998</v>
       </c>
-      <c r="E76" s="3">
-        <v>10</v>
+      <c r="E76" t="s">
+        <v>97</v>
       </c>
       <c r="F76" s="3">
         <v>30</v>
@@ -4011,8 +4016,8 @@
       <c r="D77" s="2">
         <v>15.99</v>
       </c>
-      <c r="E77" s="3">
-        <v>10</v>
+      <c r="E77" t="s">
+        <v>97</v>
       </c>
       <c r="F77" s="3">
         <v>5</v>
@@ -4040,8 +4045,8 @@
       <c r="D78" s="2">
         <v>5.99</v>
       </c>
-      <c r="E78" s="3">
-        <v>1</v>
+      <c r="E78" t="s">
+        <v>97</v>
       </c>
       <c r="F78" s="3">
         <v>10</v>
@@ -4069,8 +4074,8 @@
       <c r="D79" s="2">
         <v>6.99</v>
       </c>
-      <c r="E79" s="3">
-        <v>1</v>
+      <c r="E79" t="s">
+        <v>97</v>
       </c>
       <c r="F79" s="3">
         <v>15</v>
@@ -4098,8 +4103,8 @@
       <c r="D80" s="2">
         <v>7.99</v>
       </c>
-      <c r="E80" s="3">
-        <v>1</v>
+      <c r="E80" t="s">
+        <v>97</v>
       </c>
       <c r="F80" s="3">
         <v>30</v>
@@ -4127,8 +4132,8 @@
       <c r="D81" s="2">
         <v>4.99</v>
       </c>
-      <c r="E81" s="3">
-        <v>1</v>
+      <c r="E81" t="s">
+        <v>97</v>
       </c>
       <c r="F81" s="3">
         <v>5</v>
@@ -4156,8 +4161,8 @@
       <c r="D82" s="2">
         <v>30.99</v>
       </c>
-      <c r="E82" s="3">
-        <v>20</v>
+      <c r="E82" t="s">
+        <v>97</v>
       </c>
       <c r="F82" s="3">
         <v>10</v>
@@ -4185,8 +4190,8 @@
       <c r="D83" s="2">
         <v>31.99</v>
       </c>
-      <c r="E83" s="3">
-        <v>20</v>
+      <c r="E83" t="s">
+        <v>97</v>
       </c>
       <c r="F83" s="3">
         <v>15</v>
@@ -4214,8 +4219,8 @@
       <c r="D84" s="2">
         <v>32.99</v>
       </c>
-      <c r="E84" s="3">
-        <v>20</v>
+      <c r="E84" t="s">
+        <v>97</v>
       </c>
       <c r="F84" s="3">
         <v>30</v>
@@ -4243,8 +4248,8 @@
       <c r="D85" s="2">
         <v>29.99</v>
       </c>
-      <c r="E85" s="3">
-        <v>20</v>
+      <c r="E85" t="s">
+        <v>97</v>
       </c>
       <c r="F85" s="3">
         <v>5</v>
@@ -4273,7 +4278,7 @@
         <v>8.99</v>
       </c>
       <c r="E86" s="3">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="F86" s="3">
         <v>10</v>
@@ -4302,7 +4307,7 @@
         <v>9.99</v>
       </c>
       <c r="E87" s="3">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="F87" s="3">
         <v>15</v>
@@ -4331,7 +4336,7 @@
         <v>10.99</v>
       </c>
       <c r="E88" s="3">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="F88" s="3">
         <v>30</v>
@@ -4360,7 +4365,7 @@
         <v>7.99</v>
       </c>
       <c r="E89" s="3">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="F89" s="3">
         <v>5</v>
@@ -4389,7 +4394,7 @@
         <v>12.99</v>
       </c>
       <c r="E90" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F90" s="3">
         <v>10</v>
@@ -4418,7 +4423,7 @@
         <v>13.99</v>
       </c>
       <c r="E91" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F91" s="3">
         <v>15</v>
@@ -4447,7 +4452,7 @@
         <v>14.99</v>
       </c>
       <c r="E92" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F92" s="3">
         <v>30</v>
@@ -4476,7 +4481,7 @@
         <v>11.99</v>
       </c>
       <c r="E93" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F93" s="3">
         <v>5</v>
@@ -4504,8 +4509,8 @@
       <c r="D94" s="2">
         <v>29.99</v>
       </c>
-      <c r="E94" t="s">
-        <v>97</v>
+      <c r="E94" s="3">
+        <v>5</v>
       </c>
       <c r="F94" s="3">
         <v>10</v>
@@ -4533,8 +4538,8 @@
       <c r="D95" s="2">
         <v>39.99</v>
       </c>
-      <c r="E95" t="s">
-        <v>97</v>
+      <c r="E95" s="3">
+        <v>5</v>
       </c>
       <c r="F95" s="3">
         <v>15</v>
@@ -4562,8 +4567,8 @@
       <c r="D96" s="2">
         <v>58.99</v>
       </c>
-      <c r="E96" t="s">
-        <v>97</v>
+      <c r="E96" s="3">
+        <v>5</v>
       </c>
       <c r="F96" s="3">
         <v>30</v>
@@ -4591,8 +4596,8 @@
       <c r="D97" s="2">
         <v>18.989999999999998</v>
       </c>
-      <c r="E97" t="s">
-        <v>97</v>
+      <c r="E97" s="3">
+        <v>5</v>
       </c>
       <c r="F97" s="3">
         <v>5</v>
@@ -4620,8 +4625,8 @@
       <c r="D98" s="2">
         <v>51.99</v>
       </c>
-      <c r="E98" t="s">
-        <v>97</v>
+      <c r="E98" s="3">
+        <v>3</v>
       </c>
       <c r="F98" s="3">
         <v>10</v>
@@ -4649,8 +4654,8 @@
       <c r="D99" s="2">
         <v>64.989999999999995</v>
       </c>
-      <c r="E99" t="s">
-        <v>97</v>
+      <c r="E99" s="3">
+        <v>3</v>
       </c>
       <c r="F99" s="3">
         <v>15</v>
@@ -4678,8 +4683,8 @@
       <c r="D100" s="2">
         <v>78.989999999999995</v>
       </c>
-      <c r="E100" t="s">
-        <v>97</v>
+      <c r="E100" s="3">
+        <v>3</v>
       </c>
       <c r="F100" s="3">
         <v>30</v>
@@ -4707,8 +4712,8 @@
       <c r="D101" s="2">
         <v>27.99</v>
       </c>
-      <c r="E101" t="s">
-        <v>97</v>
+      <c r="E101" s="3">
+        <v>3</v>
       </c>
       <c r="F101" s="3">
         <v>5</v>
@@ -4736,8 +4741,8 @@
       <c r="D102" s="2">
         <v>29.99</v>
       </c>
-      <c r="E102" t="s">
-        <v>97</v>
+      <c r="E102" s="3">
+        <v>1</v>
       </c>
       <c r="F102" s="3">
         <v>10</v>
@@ -4765,8 +4770,8 @@
       <c r="D103" s="2">
         <v>39.99</v>
       </c>
-      <c r="E103" t="s">
-        <v>97</v>
+      <c r="E103" s="3">
+        <v>1</v>
       </c>
       <c r="F103" s="3">
         <v>15</v>
@@ -4794,8 +4799,8 @@
       <c r="D104" s="2">
         <v>58.99</v>
       </c>
-      <c r="E104" t="s">
-        <v>97</v>
+      <c r="E104" s="3">
+        <v>1</v>
       </c>
       <c r="F104" s="3">
         <v>30</v>
@@ -4823,8 +4828,8 @@
       <c r="D105" s="2">
         <v>18.989999999999998</v>
       </c>
-      <c r="E105" t="s">
-        <v>97</v>
+      <c r="E105" s="3">
+        <v>1</v>
       </c>
       <c r="F105" s="3">
         <v>5</v>
@@ -4852,8 +4857,8 @@
       <c r="D106" s="2">
         <v>12.99</v>
       </c>
-      <c r="E106" s="3">
-        <v>10</v>
+      <c r="E106" t="s">
+        <v>97</v>
       </c>
       <c r="F106" s="3">
         <v>10</v>
@@ -4881,8 +4886,8 @@
       <c r="D107" s="2">
         <v>13.99</v>
       </c>
-      <c r="E107" s="3">
-        <v>10</v>
+      <c r="E107" t="s">
+        <v>97</v>
       </c>
       <c r="F107" s="3">
         <v>15</v>
@@ -4910,8 +4915,8 @@
       <c r="D108" s="2">
         <v>14.99</v>
       </c>
-      <c r="E108" s="3">
-        <v>10</v>
+      <c r="E108" t="s">
+        <v>97</v>
       </c>
       <c r="F108" s="3">
         <v>30</v>
@@ -4939,8 +4944,8 @@
       <c r="D109" s="2">
         <v>11.99</v>
       </c>
-      <c r="E109" s="3">
-        <v>10</v>
+      <c r="E109" t="s">
+        <v>97</v>
       </c>
       <c r="F109" s="3">
         <v>5</v>
@@ -4968,8 +4973,8 @@
       <c r="D110" s="2">
         <v>4</v>
       </c>
-      <c r="E110" s="3">
-        <v>1</v>
+      <c r="E110" t="s">
+        <v>97</v>
       </c>
       <c r="F110" s="3">
         <v>10</v>
@@ -4997,8 +5002,8 @@
       <c r="D111" s="2">
         <v>5.99</v>
       </c>
-      <c r="E111" s="3">
-        <v>1</v>
+      <c r="E111" t="s">
+        <v>97</v>
       </c>
       <c r="F111" s="3">
         <v>15</v>
@@ -5026,8 +5031,8 @@
       <c r="D112" s="2">
         <v>6</v>
       </c>
-      <c r="E112" s="3">
-        <v>1</v>
+      <c r="E112" t="s">
+        <v>97</v>
       </c>
       <c r="F112" s="3">
         <v>30</v>
@@ -5055,8 +5060,8 @@
       <c r="D113" s="2">
         <v>5.99</v>
       </c>
-      <c r="E113" s="3">
-        <v>1</v>
+      <c r="E113" t="s">
+        <v>97</v>
       </c>
       <c r="F113" s="3">
         <v>5</v>
@@ -5084,8 +5089,8 @@
       <c r="D114" s="2">
         <v>18.989999999999998</v>
       </c>
-      <c r="E114" s="3">
-        <v>20</v>
+      <c r="E114" t="s">
+        <v>97</v>
       </c>
       <c r="F114" s="3">
         <v>10</v>
@@ -5113,8 +5118,8 @@
       <c r="D115" s="2">
         <v>19.989999999999998</v>
       </c>
-      <c r="E115" s="3">
-        <v>20</v>
+      <c r="E115" t="s">
+        <v>97</v>
       </c>
       <c r="F115" s="3">
         <v>15</v>
@@ -5142,8 +5147,8 @@
       <c r="D116" s="2">
         <v>19.989999999999998</v>
       </c>
-      <c r="E116" s="3">
-        <v>20</v>
+      <c r="E116" t="s">
+        <v>97</v>
       </c>
       <c r="F116" s="3">
         <v>30</v>
@@ -5171,8 +5176,8 @@
       <c r="D117" s="2">
         <v>17.989999999999998</v>
       </c>
-      <c r="E117" s="3">
-        <v>20</v>
+      <c r="E117" t="s">
+        <v>97</v>
       </c>
       <c r="F117" s="3">
         <v>5</v>
@@ -5201,7 +5206,7 @@
         <v>5.99</v>
       </c>
       <c r="E118" s="3">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="F118" s="3">
         <v>10</v>
@@ -5230,7 +5235,7 @@
         <v>6.99</v>
       </c>
       <c r="E119" s="3">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="F119" s="3">
         <v>15</v>
@@ -5259,7 +5264,7 @@
         <v>7.99</v>
       </c>
       <c r="E120" s="3">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="F120" s="3">
         <v>30</v>
@@ -5288,7 +5293,7 @@
         <v>5.99</v>
       </c>
       <c r="E121" s="3">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="F121" s="3">
         <v>5</v>
@@ -5317,7 +5322,7 @@
         <v>7.99</v>
       </c>
       <c r="E122" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F122" s="3">
         <v>10</v>
@@ -5346,7 +5351,7 @@
         <v>8.99</v>
       </c>
       <c r="E123" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F123" s="3">
         <v>15</v>
@@ -5375,7 +5380,7 @@
         <v>9.99</v>
       </c>
       <c r="E124" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F124" s="3">
         <v>30</v>
@@ -5404,7 +5409,7 @@
         <v>7.99</v>
       </c>
       <c r="E125" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F125" s="3">
         <v>5</v>
@@ -5432,8 +5437,8 @@
       <c r="D126" s="2">
         <v>24.99</v>
       </c>
-      <c r="E126" t="s">
-        <v>97</v>
+      <c r="E126" s="3">
+        <v>5</v>
       </c>
       <c r="F126" s="3">
         <v>10</v>
@@ -5461,8 +5466,8 @@
       <c r="D127" s="2">
         <v>36.99</v>
       </c>
-      <c r="E127" t="s">
-        <v>97</v>
+      <c r="E127" s="3">
+        <v>5</v>
       </c>
       <c r="F127" s="3">
         <v>15</v>
@@ -5490,8 +5495,8 @@
       <c r="D128" s="2">
         <v>48.99</v>
       </c>
-      <c r="E128" t="s">
-        <v>97</v>
+      <c r="E128" s="3">
+        <v>5</v>
       </c>
       <c r="F128" s="3">
         <v>30</v>
@@ -5519,8 +5524,8 @@
       <c r="D129" s="2">
         <v>16.989999999999998</v>
       </c>
-      <c r="E129" t="s">
-        <v>97</v>
+      <c r="E129" s="3">
+        <v>5</v>
       </c>
       <c r="F129" s="3">
         <v>5</v>
@@ -5548,8 +5553,8 @@
       <c r="D130" s="2">
         <v>42.99</v>
       </c>
-      <c r="E130" t="s">
-        <v>97</v>
+      <c r="E130" s="3">
+        <v>3</v>
       </c>
       <c r="F130" s="3">
         <v>10</v>
@@ -5577,8 +5582,8 @@
       <c r="D131" s="2">
         <v>52.99</v>
       </c>
-      <c r="E131" t="s">
-        <v>97</v>
+      <c r="E131" s="3">
+        <v>3</v>
       </c>
       <c r="F131" s="3">
         <v>15</v>
@@ -5606,8 +5611,8 @@
       <c r="D132" s="2">
         <v>64.989999999999995</v>
       </c>
-      <c r="E132" t="s">
-        <v>97</v>
+      <c r="E132" s="3">
+        <v>3</v>
       </c>
       <c r="F132" s="3">
         <v>30</v>
@@ -5635,8 +5640,8 @@
       <c r="D133" s="2">
         <v>23.99</v>
       </c>
-      <c r="E133" t="s">
-        <v>97</v>
+      <c r="E133" s="3">
+        <v>3</v>
       </c>
       <c r="F133" s="3">
         <v>5</v>
@@ -5664,8 +5669,8 @@
       <c r="D134" s="2">
         <v>24.99</v>
       </c>
-      <c r="E134" t="s">
-        <v>97</v>
+      <c r="E134" s="3">
+        <v>1</v>
       </c>
       <c r="F134" s="3">
         <v>10</v>
@@ -5693,8 +5698,8 @@
       <c r="D135" s="2">
         <v>36.99</v>
       </c>
-      <c r="E135" t="s">
-        <v>97</v>
+      <c r="E135" s="3">
+        <v>1</v>
       </c>
       <c r="F135" s="3">
         <v>15</v>
@@ -5722,8 +5727,8 @@
       <c r="D136" s="2">
         <v>48.99</v>
       </c>
-      <c r="E136" t="s">
-        <v>97</v>
+      <c r="E136" s="3">
+        <v>1</v>
       </c>
       <c r="F136" s="3">
         <v>30</v>
@@ -5751,8 +5756,8 @@
       <c r="D137" s="2">
         <v>16.989999999999998</v>
       </c>
-      <c r="E137" t="s">
-        <v>97</v>
+      <c r="E137" s="3">
+        <v>1</v>
       </c>
       <c r="F137" s="3">
         <v>5</v>
@@ -6013,7 +6018,7 @@
         <v>31.99</v>
       </c>
       <c r="E146" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F146" s="3">
         <v>10</v>
@@ -6042,7 +6047,7 @@
         <v>32.99</v>
       </c>
       <c r="E147" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F147" s="3">
         <v>15</v>
@@ -6071,7 +6076,7 @@
         <v>34.99</v>
       </c>
       <c r="E148" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F148" s="3">
         <v>30</v>
@@ -6100,7 +6105,7 @@
         <v>29.99</v>
       </c>
       <c r="E149" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F149" s="3">
         <v>5</v>
@@ -6129,7 +6134,7 @@
         <v>5.99</v>
       </c>
       <c r="E150" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F150" s="3">
         <v>10</v>
@@ -6158,7 +6163,7 @@
         <v>6.99</v>
       </c>
       <c r="E151" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F151" s="3">
         <v>15</v>
@@ -6187,7 +6192,7 @@
         <v>7.99</v>
       </c>
       <c r="E152" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F152" s="3">
         <v>30</v>
@@ -6216,7 +6221,7 @@
         <v>5.99</v>
       </c>
       <c r="E153" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F153" s="3">
         <v>5</v>
@@ -6245,7 +6250,7 @@
         <v>48.99</v>
       </c>
       <c r="E154" s="3">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F154" s="3">
         <v>10</v>
@@ -6274,7 +6279,7 @@
         <v>49.99</v>
       </c>
       <c r="E155" s="3">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F155" s="3">
         <v>15</v>
@@ -6303,7 +6308,7 @@
         <v>52.99</v>
       </c>
       <c r="E156" s="3">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F156" s="3">
         <v>30</v>
@@ -6332,7 +6337,7 @@
         <v>47.99</v>
       </c>
       <c r="E157" s="3">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F157" s="3">
         <v>5</v>
@@ -6477,7 +6482,7 @@
         <v>17.989999999999998</v>
       </c>
       <c r="E162" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F162" s="3">
         <v>10</v>
@@ -6506,7 +6511,7 @@
         <v>18.989999999999998</v>
       </c>
       <c r="E163" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F163" s="3">
         <v>15</v>
@@ -6535,7 +6540,7 @@
         <v>19.989999999999998</v>
       </c>
       <c r="E164" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F164" s="3">
         <v>30</v>
@@ -6564,7 +6569,7 @@
         <v>16.989999999999998</v>
       </c>
       <c r="E165" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F165" s="3">
         <v>5</v>
@@ -6592,8 +6597,8 @@
       <c r="D166" s="2">
         <v>23.99</v>
       </c>
-      <c r="E166" s="3">
-        <v>10</v>
+      <c r="E166" t="s">
+        <v>97</v>
       </c>
       <c r="F166" s="3">
         <v>10</v>
@@ -6621,8 +6626,8 @@
       <c r="D167" s="2">
         <v>23.99</v>
       </c>
-      <c r="E167" s="3">
-        <v>10</v>
+      <c r="E167" t="s">
+        <v>97</v>
       </c>
       <c r="F167" s="3">
         <v>15</v>
@@ -6650,8 +6655,8 @@
       <c r="D168" s="2">
         <v>24.99</v>
       </c>
-      <c r="E168" s="3">
-        <v>10</v>
+      <c r="E168" t="s">
+        <v>97</v>
       </c>
       <c r="F168" s="3">
         <v>30</v>
@@ -6679,8 +6684,8 @@
       <c r="D169" s="2">
         <v>22.99</v>
       </c>
-      <c r="E169" s="3">
-        <v>10</v>
+      <c r="E169" t="s">
+        <v>97</v>
       </c>
       <c r="F169" s="3">
         <v>5</v>
@@ -6708,8 +6713,8 @@
       <c r="D170" s="2">
         <v>5.99</v>
       </c>
-      <c r="E170" s="3">
-        <v>1</v>
+      <c r="E170" t="s">
+        <v>97</v>
       </c>
       <c r="F170" s="3">
         <v>10</v>
@@ -6737,8 +6742,8 @@
       <c r="D171" s="2">
         <v>6.99</v>
       </c>
-      <c r="E171" s="3">
-        <v>1</v>
+      <c r="E171" t="s">
+        <v>97</v>
       </c>
       <c r="F171" s="3">
         <v>15</v>
@@ -6766,8 +6771,8 @@
       <c r="D172" s="2">
         <v>7.99</v>
       </c>
-      <c r="E172" s="3">
-        <v>1</v>
+      <c r="E172" t="s">
+        <v>97</v>
       </c>
       <c r="F172" s="3">
         <v>30</v>
@@ -6795,8 +6800,8 @@
       <c r="D173" s="2">
         <v>4.99</v>
       </c>
-      <c r="E173" s="3">
-        <v>1</v>
+      <c r="E173" t="s">
+        <v>97</v>
       </c>
       <c r="F173" s="3">
         <v>5</v>
@@ -6824,8 +6829,8 @@
       <c r="D174" s="2">
         <v>40.99</v>
       </c>
-      <c r="E174" s="3">
-        <v>20</v>
+      <c r="E174" t="s">
+        <v>97</v>
       </c>
       <c r="F174" s="3">
         <v>10</v>
@@ -6853,8 +6858,8 @@
       <c r="D175" s="2">
         <v>41.99</v>
       </c>
-      <c r="E175" s="3">
-        <v>20</v>
+      <c r="E175" t="s">
+        <v>97</v>
       </c>
       <c r="F175" s="3">
         <v>15</v>
@@ -6882,8 +6887,8 @@
       <c r="D176" s="2">
         <v>42.99</v>
       </c>
-      <c r="E176" s="3">
-        <v>20</v>
+      <c r="E176" t="s">
+        <v>97</v>
       </c>
       <c r="F176" s="3">
         <v>30</v>
@@ -6911,8 +6916,8 @@
       <c r="D177" s="2">
         <v>39.99</v>
       </c>
-      <c r="E177" s="3">
-        <v>20</v>
+      <c r="E177" t="s">
+        <v>97</v>
       </c>
       <c r="F177" s="3">
         <v>5</v>
@@ -6941,7 +6946,7 @@
         <v>11.99</v>
       </c>
       <c r="E178" s="3">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="F178" s="3">
         <v>10</v>
@@ -6970,7 +6975,7 @@
         <v>11.99</v>
       </c>
       <c r="E179" s="3">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="F179" s="3">
         <v>15</v>
@@ -6999,7 +7004,7 @@
         <v>12.99</v>
       </c>
       <c r="E180" s="3">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="F180" s="3">
         <v>30</v>
@@ -7028,7 +7033,7 @@
         <v>10.99</v>
       </c>
       <c r="E181" s="3">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="F181" s="3">
         <v>5</v>
@@ -7057,7 +7062,7 @@
         <v>14.99</v>
       </c>
       <c r="E182" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F182" s="3">
         <v>10</v>
@@ -7086,7 +7091,7 @@
         <v>15.99</v>
       </c>
       <c r="E183" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F183" s="3">
         <v>15</v>
@@ -7115,7 +7120,7 @@
         <v>15.99</v>
       </c>
       <c r="E184" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F184" s="3">
         <v>30</v>
@@ -7144,7 +7149,7 @@
         <v>13.99</v>
       </c>
       <c r="E185" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F185" s="3">
         <v>5</v>
@@ -7172,8 +7177,8 @@
       <c r="D186" s="2">
         <v>42.99</v>
       </c>
-      <c r="E186" t="s">
-        <v>97</v>
+      <c r="E186" s="3">
+        <v>5</v>
       </c>
       <c r="F186" s="3">
         <v>10</v>
@@ -7201,8 +7206,8 @@
       <c r="D187" s="2">
         <v>64.989999999999995</v>
       </c>
-      <c r="E187" t="s">
-        <v>97</v>
+      <c r="E187" s="3">
+        <v>5</v>
       </c>
       <c r="F187" s="3">
         <v>15</v>
@@ -7230,8 +7235,8 @@
       <c r="D188" s="2">
         <v>80.989999999999995</v>
       </c>
-      <c r="E188" t="s">
-        <v>97</v>
+      <c r="E188" s="3">
+        <v>5</v>
       </c>
       <c r="F188" s="3">
         <v>30</v>
@@ -7259,8 +7264,8 @@
       <c r="D189" s="2">
         <v>21.99</v>
       </c>
-      <c r="E189" t="s">
-        <v>97</v>
+      <c r="E189" s="3">
+        <v>5</v>
       </c>
       <c r="F189" s="3">
         <v>5</v>
@@ -7288,8 +7293,8 @@
       <c r="D190" s="2">
         <v>52.99</v>
       </c>
-      <c r="E190" t="s">
-        <v>97</v>
+      <c r="E190" s="3">
+        <v>3</v>
       </c>
       <c r="F190" s="3">
         <v>10</v>
@@ -7317,8 +7322,8 @@
       <c r="D191" s="2">
         <v>80.989999999999995</v>
       </c>
-      <c r="E191" t="s">
-        <v>97</v>
+      <c r="E191" s="3">
+        <v>3</v>
       </c>
       <c r="F191" s="3">
         <v>15</v>
@@ -7346,8 +7351,8 @@
       <c r="D192" s="2">
         <v>120.99</v>
       </c>
-      <c r="E192" t="s">
-        <v>97</v>
+      <c r="E192" s="3">
+        <v>3</v>
       </c>
       <c r="F192" s="3">
         <v>30</v>
@@ -7375,8 +7380,8 @@
       <c r="D193" s="2">
         <v>34.99</v>
       </c>
-      <c r="E193" t="s">
-        <v>97</v>
+      <c r="E193" s="3">
+        <v>3</v>
       </c>
       <c r="F193" s="3">
         <v>5</v>
@@ -7404,8 +7409,8 @@
       <c r="D194" s="2">
         <v>42.99</v>
       </c>
-      <c r="E194" t="s">
-        <v>97</v>
+      <c r="E194" s="3">
+        <v>1</v>
       </c>
       <c r="F194" s="3">
         <v>10</v>
@@ -7433,8 +7438,8 @@
       <c r="D195" s="2">
         <v>64.989999999999995</v>
       </c>
-      <c r="E195" t="s">
-        <v>97</v>
+      <c r="E195" s="3">
+        <v>1</v>
       </c>
       <c r="F195" s="3">
         <v>15</v>
@@ -7462,8 +7467,8 @@
       <c r="D196" s="2">
         <v>80.989999999999995</v>
       </c>
-      <c r="E196" t="s">
-        <v>97</v>
+      <c r="E196" s="3">
+        <v>1</v>
       </c>
       <c r="F196" s="3">
         <v>30</v>
@@ -7491,8 +7496,8 @@
       <c r="D197" s="2">
         <v>21.99</v>
       </c>
-      <c r="E197" t="s">
-        <v>97</v>
+      <c r="E197" s="3">
+        <v>1</v>
       </c>
       <c r="F197" s="3">
         <v>5</v>
@@ -7521,7 +7526,7 @@
         <v>19.989999999999998</v>
       </c>
       <c r="E198" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F198" s="3">
         <v>10</v>
@@ -7550,7 +7555,7 @@
         <v>19.989999999999998</v>
       </c>
       <c r="E199" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F199" s="3">
         <v>15</v>
@@ -7579,7 +7584,7 @@
         <v>20.99</v>
       </c>
       <c r="E200" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F200" s="3">
         <v>30</v>
@@ -7608,7 +7613,7 @@
         <v>18.989999999999998</v>
       </c>
       <c r="E201" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F201" s="3">
         <v>5</v>
@@ -7637,7 +7642,7 @@
         <v>4</v>
       </c>
       <c r="E202" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F202" s="3">
         <v>10</v>
@@ -7666,7 +7671,7 @@
         <v>5.99</v>
       </c>
       <c r="E203" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F203" s="3">
         <v>15</v>
@@ -7695,7 +7700,7 @@
         <v>6</v>
       </c>
       <c r="E204" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F204" s="3">
         <v>30</v>
@@ -7724,7 +7729,7 @@
         <v>5.99</v>
       </c>
       <c r="E205" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F205" s="3">
         <v>5</v>
@@ -7753,7 +7758,7 @@
         <v>35.99</v>
       </c>
       <c r="E206" s="3">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F206" s="3">
         <v>10</v>
@@ -7782,7 +7787,7 @@
         <v>36.99</v>
       </c>
       <c r="E207" s="3">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F207" s="3">
         <v>15</v>
@@ -7811,7 +7816,7 @@
         <v>37.99</v>
       </c>
       <c r="E208" s="3">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F208" s="3">
         <v>30</v>
@@ -7840,7 +7845,7 @@
         <v>35.99</v>
       </c>
       <c r="E209" s="3">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F209" s="3">
         <v>5</v>
@@ -7985,7 +7990,7 @@
         <v>11.99</v>
       </c>
       <c r="E214" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F214" s="3">
         <v>10</v>
@@ -8014,7 +8019,7 @@
         <v>11.99</v>
       </c>
       <c r="E215" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F215" s="3">
         <v>15</v>
@@ -8043,7 +8048,7 @@
         <v>12.99</v>
       </c>
       <c r="E216" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F216" s="3">
         <v>30</v>
@@ -8072,7 +8077,7 @@
         <v>10.99</v>
       </c>
       <c r="E217" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F217" s="3">
         <v>5</v>
@@ -8088,6 +8093,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E198:E217">
+    <sortCondition descending="1" ref="E197:E217"/>
+  </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Region.xlsx
+++ b/Region.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TV\PycharmProjects\uploaded version\Travelesim-main - Copy\Travelesim-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2307409B-42A9-48B4-9BCF-156FFAD48BA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BF73265-9A77-4669-B981-4C6331A287F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1788,8 +1788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="N207" sqref="N207"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
